--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\InterfaceTest\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\code\InterfaceTest\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>API Purpose</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Check Point</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>www.test.liveapp.com.cn</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -83,11 +77,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/user/register</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"email":"${randomEmail}","password":"password"}</t>
+    <t>登陆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userName":"E00422","password":"123456"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/loginController.do?login</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>${session}=[Cookie]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://139.196.178.44:5330</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +267,15 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -562,7 +577,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,16 +704,22 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -724,6 +745,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1022,27 +1044,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" customWidth="1"/>
-    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1054,57 +1076,60 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1148,10 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>